--- a/ExcelConfig/_config/道具id划分.xlsx
+++ b/ExcelConfig/_config/道具id划分.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ttt\git\FF\ExcelConfig\_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D3E7C8-144C-4ACC-B501-67E4C5DE9C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886E312E-75F7-4668-A9C2-EFB2F65C0EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>min</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,18 +48,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Background</t>
-  </si>
-  <si>
-    <t>Ground</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>背景图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backgrounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spheres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roofs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Walls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terrains</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -406,33 +451,139 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <f>C2+1</f>
+        <v>1001</v>
+      </c>
+      <c r="C3">
+        <f>B3+D3-1</f>
+        <v>2000</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B8" si="0">C3+1</f>
+        <v>2001</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C8" si="1">B4+D4-1</f>
+        <v>3000</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>3001</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>4001</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>1001</v>
-      </c>
-      <c r="C3">
-        <v>2000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>5001</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>6001</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>7000</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/_config/道具id划分.xlsx
+++ b/ExcelConfig/_config/道具id划分.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ttt\git\FF\ExcelConfig\_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886E312E-75F7-4668-A9C2-EFB2F65C0EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3477210-EC3A-4721-92A1-2F6E7617473D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>min</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,14 @@
   </si>
   <si>
     <t>Terrains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buildings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -463,7 +471,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -478,11 +486,11 @@
       </c>
       <c r="B3">
         <f>C2+1</f>
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C3">
         <f>B3+D3-1</f>
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D3">
         <v>1000</v>
@@ -497,11 +505,11 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B8" si="0">C3+1</f>
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C8" si="1">B4+D4-1</f>
-        <v>3000</v>
+        <f t="shared" ref="C4:C9" si="1">B4+D4-1</f>
+        <v>2999</v>
       </c>
       <c r="D4">
         <v>1000</v>
@@ -516,11 +524,11 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>3999</v>
       </c>
       <c r="D5">
         <v>1000</v>
@@ -535,11 +543,11 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>4999</v>
       </c>
       <c r="D6">
         <v>1000</v>
@@ -554,11 +562,11 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>5999</v>
       </c>
       <c r="D7">
         <v>1000</v>
@@ -573,17 +581,35 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>6001</v>
+        <v>6000</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>6999</v>
       </c>
       <c r="D8">
         <v>1000</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>10001</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="D9">
+        <v>10000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/_config/道具id划分.xlsx
+++ b/ExcelConfig/_config/道具id划分.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ttt\git\FF\ExcelConfig\_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3477210-EC3A-4721-92A1-2F6E7617473D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E29F2A5-F085-40B5-B79D-F2B7FE5271F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="2730" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>min</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,22 @@
   </si>
   <si>
     <t>家具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球地形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -504,11 +520,11 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B8" si="0">C3+1</f>
+        <f t="shared" ref="B4:B9" si="0">C3+1</f>
         <v>2000</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C9" si="1">B4+D4-1</f>
+        <f t="shared" ref="C4:C10" si="1">B4+D4-1</f>
         <v>2999</v>
       </c>
       <c r="D4">
@@ -572,12 +588,12 @@
         <v>1000</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -591,25 +607,63 @@
         <v>1000</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>10001</v>
+        <f t="shared" si="0"/>
+        <v>7000</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
+        <v>7999</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>19999</v>
+      </c>
+      <c r="D10">
+        <v>10000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11" si="2">C10+1</f>
         <v>20000</v>
       </c>
-      <c r="D9">
+      <c r="C11">
+        <f t="shared" ref="C11" si="3">B11+D11-1</f>
+        <v>29999</v>
+      </c>
+      <c r="D11">
         <v>10000</v>
       </c>
-      <c r="E9" t="s">
-        <v>19</v>
+      <c r="E11" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/_config/道具id划分.xlsx
+++ b/ExcelConfig/_config/道具id划分.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ttt\git\FF\ExcelConfig\_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E29F2A5-F085-40B5-B79D-F2B7FE5271F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0CD380-2BD3-4585-85E7-C881927490FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="2730" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="3165" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>min</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,14 @@
   </si>
   <si>
     <t>精灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃罩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -520,11 +528,11 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B9" si="0">C3+1</f>
+        <f t="shared" ref="B4:B10" si="0">C3+1</f>
         <v>2000</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C10" si="1">B4+D4-1</f>
+        <f t="shared" ref="C4:C12" si="1">B4+D4-1</f>
         <v>2999</v>
       </c>
       <c r="D4">
@@ -536,26 +544,26 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
+        <f>B5+D5-1</f>
         <v>3999</v>
       </c>
       <c r="D5">
         <v>1000</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -569,12 +577,12 @@
         <v>1000</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
@@ -588,12 +596,12 @@
         <v>1000</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -607,12 +615,12 @@
         <v>1000</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -626,43 +634,62 @@
         <v>1000</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B10">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>8000</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
+        <v>8999</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>10000</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
         <v>19999</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <v>10000</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
-        <f t="shared" ref="B11" si="2">C10+1</f>
+      <c r="B13">
+        <f t="shared" ref="B13" si="2">C12+1</f>
         <v>20000</v>
       </c>
-      <c r="C11">
-        <f t="shared" ref="C11" si="3">B11+D11-1</f>
+      <c r="C13">
+        <f t="shared" ref="C13" si="3">B13+D13-1</f>
         <v>29999</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <v>10000</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
     </row>

--- a/ExcelConfig/_config/道具id划分.xlsx
+++ b/ExcelConfig/_config/道具id划分.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ttt\git\FF\ExcelConfig\_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0CD380-2BD3-4585-85E7-C881927490FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7339BD5-5C4A-426A-AC07-629D4A9B9290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="3165" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="3270" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>min</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,14 @@
   </si>
   <si>
     <t>玻璃罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainTrees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主场景大树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +473,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -656,6 +664,24 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>9000</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>9999</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>

--- a/ExcelConfig/_config/道具id划分.xlsx
+++ b/ExcelConfig/_config/道具id划分.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ttt\git\FF\ExcelConfig\_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7339BD5-5C4A-426A-AC07-629D4A9B9290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E28353-EA01-4325-8A2B-8E476F5E1832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="3270" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="3615" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -470,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -481,7 +481,7 @@
     <col min="1" max="1" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -495,12 +495,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>999</v>
@@ -511,8 +511,12 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <f>B2/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -530,17 +534,21 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f t="shared" ref="G3:G14" si="0">B3/1000</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B10" si="0">C3+1</f>
+        <f t="shared" ref="B4:B10" si="1">C3+1</f>
         <v>2000</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C12" si="1">B4+D4-1</f>
+        <f t="shared" ref="C4:C12" si="2">B4+D4-1</f>
         <v>2999</v>
       </c>
       <c r="D4">
@@ -549,13 +557,17 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="C5">
@@ -568,17 +580,21 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4999</v>
       </c>
       <c r="D6">
@@ -587,17 +603,21 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5999</v>
       </c>
       <c r="D7">
@@ -606,17 +626,21 @@
       <c r="E7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6999</v>
       </c>
       <c r="D8">
@@ -625,17 +649,21 @@
       <c r="E8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7000</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7999</v>
       </c>
       <c r="D9">
@@ -644,17 +672,21 @@
       <c r="E9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8000</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8999</v>
       </c>
       <c r="D10">
@@ -663,8 +695,12 @@
       <c r="E10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -672,7 +708,7 @@
         <v>9000</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9999</v>
       </c>
       <c r="D11">
@@ -681,8 +717,12 @@
       <c r="E11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -690,7 +730,7 @@
         <v>10000</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19999</v>
       </c>
       <c r="D12">
@@ -699,13 +739,16 @@
       <c r="E12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13" si="2">C12+1</f>
         <v>20000</v>
       </c>
       <c r="C13">
@@ -717,6 +760,51 @@
       </c>
       <c r="E13" t="s">
         <v>5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f>G14+10</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <f t="shared" ref="G16:G25" si="4">G15+10</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
